--- a/parameter_files/v1/sigmas.xlsx
+++ b/parameter_files/v1/sigmas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2391EFD5-D828-43F7-A8FC-4A4AC2292D7E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,21 +1191,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,6 +1407,9 @@
       <c r="U4">
         <v>2</v>
       </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
       <c r="AF4">
         <v>2</v>
       </c>
@@ -1451,6 +1454,9 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="4"/>
+      <c r="W6">
+        <v>1</v>
+      </c>
       <c r="AF6">
         <v>2</v>
       </c>

--- a/parameter_files/v1/sigmas.xlsx
+++ b/parameter_files/v1/sigmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2391EFD5-D828-43F7-A8FC-4A4AC2292D7E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17743194-B66B-4D30-8A32-37F31966AD1D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,6 +900,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,10 +1206,10 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF4">
         <v>2</v>
@@ -1455,7 +1459,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="4"/>
       <c r="W6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6">
         <v>2</v>
